--- a/biology/Botanique/Achnanthidiaceae/Achnanthidiaceae.xlsx
+++ b/biology/Botanique/Achnanthidiaceae/Achnanthidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Achnanthidiaceae sont une famille d'algues de l'embranchement des Bacillariophyta, de la classe des Bacillariophyceae et de l’ordre des Achnanthales.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Achnanthidiaceae a été créée en 1990 par le phycologue britannique David George Mann (d)[1] (1953-).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Achnanthidiaceae a été créée en 1990 par le phycologue britannique David George Mann (d) (1953-).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Achnanthidium, composé du préfixe achnanth-, par allusion au genre Achnanthes (de la famille des Achnanthaceae), et du suffixe -idium du grec ειδος / eidos, « forme ; ressemblance », en référence à la ressemblance de cette diatomée avec le genre Achnanthes.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,6 +618,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,9 +645,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Liste des genres selon AlgaeBase                                           (25 avril 2022)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste des genres selon AlgaeBase                                           (25 avril 2022) :
 Achnanthidium Kützing, 1844 - genre type
 Astartiella A.Witkowski, Lange-Bertalot &amp; Metzeltin, 1998
 Crenotia A.Z.Wojtal, 2013
@@ -677,7 +699,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Round, F.E., Crawford, R.M. &amp; Mann, D.G. (1990). The diatoms biology and morphology of the genera.  pp. [i-ix], 1-747. Cambridge: Cambridge University Press.</t>
         </is>
